--- a/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\LOGIN\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PAUA\ENTREGABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -202,9 +202,6 @@
     <t>Abelino Olguín</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminación Correcta </t>
-  </si>
-  <si>
     <t>Jose Angel Pérez</t>
   </si>
   <si>
@@ -250,19 +247,7 @@
     <t xml:space="preserve">Muestra Mensaje de Notificación </t>
   </si>
   <si>
-    <t>Menú Incicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio </t>
-  </si>
-  <si>
-    <t>Despliega Submenús</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recibir notificaciones </t>
-  </si>
-  <si>
-    <t>Despliegue</t>
   </si>
   <si>
     <t>Mostrar la lista organizada que resume la información que se encuentra  dentro de la plataforma.</t>
@@ -274,154 +259,16 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Muestra la introducción </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Engloba las acciones del usuario usara  en la plataforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financiamiento y Obligaciones </t>
-  </si>
-  <si>
-    <t>Crédito simple corto plazo</t>
-  </si>
-  <si>
-    <t>Correcto desglose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desglosa las submenús </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédito Simple Corto Plazo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encabezado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información General </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condiciones Financieras </t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muestra información del usuario en sesión. </t>
-  </si>
-  <si>
-    <t>Se visualiza la información correspondiente al usuario (delalle en el temaño de fuente) - "Solicitante Autorizado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apartado donde se agregan las condiciones financieras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite Agregar y Eliminar Registros </t>
   </si>
   <si>
     <t>Disposición / Pagos de Capital</t>
   </si>
   <si>
-    <t>Comisiones / Tasa efectiva</t>
-  </si>
-  <si>
-    <t>Documentación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta de solicitudes </t>
-  </si>
-  <si>
-    <t>Consulta de solicitudes</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
     <t xml:space="preserve">Editar  </t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar Datos correspondientes y agregar registro en la tabla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite cargar y arrastrar documentos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentación Eliminar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar los documentos “no obligatorios” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite visualizar el estado de la solicitud como datos capturados y faltantes por capturar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitud de inscripción </t>
-  </si>
-  <si>
-    <t>Visualización de la información extraida de los campos anteriores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar </t>
-  </si>
-  <si>
-    <t>Solicitar Modificación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar Borrador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check list Selección Reglas </t>
-  </si>
-  <si>
-    <t>Selección al dar clic en el cuadro de check list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selección Correcta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancela el registro </t>
-  </si>
-  <si>
-    <t>Cancelación Correcta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignar Mensaje de modificacíón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar registros como Borrador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza la solicitud se podrás ver visualizada en el apartado de  "Consulta de Solicitudes" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta de Solicitudes </t>
-  </si>
-  <si>
-    <t>Borrar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descargar   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correcto despliegue y visualización de la pagina principal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualiza la solicitud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envio de comentarios al usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrado de la solicitud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edita Registro de solicitud redireccionando al submenú Financiaminto y Oblicaciones </t>
   </si>
   <si>
     <t xml:space="preserve">Descarga de Solicitud </t>
@@ -436,85 +283,13 @@
     <t xml:space="preserve">Ingresar las Credenciales </t>
   </si>
   <si>
-    <t xml:space="preserve">Se ingreso correctamente con el usuario proporcionado por el desarrollador </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingresar </t>
   </si>
   <si>
     <t xml:space="preserve">Ingresar a la aplicacción </t>
   </si>
   <si>
-    <t>Se queda pensando al iniciar sesión / Colores de la pantalla principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumple con la funcion del botón "Agregar" haciendo el despliegue en los dos submenús (Detalle botón Agregar) </t>
-  </si>
-  <si>
-    <t>1. SRPU-167</t>
-  </si>
-  <si>
     <t>1. SRPU-169  SRPU-170</t>
-  </si>
-  <si>
-    <t>SRPU-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Permite Agregar y Eliminar Registros (Detalles Acentos, Mensajes de confirmación,  no tiene rango en número de pago , clear y no options en ingles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPU-174 /  SRPU-175 / SRPU-176 / SRPU-177 </t>
-  </si>
-  <si>
-    <t>SRPU-178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPU-179 </t>
-  </si>
-  <si>
-    <t>SRPU-180</t>
-  </si>
-  <si>
-    <t>Botón Eliminar no tiene confirmación de borrado, Botón Agregar aparece del lago superior derecho de la pantalla
-Letras color azul
-sugerencia colocarlo en otra posición</t>
-  </si>
-  <si>
-    <t>File en ingles
-Sugerencia Archivos Considero Tener algún permiso para cargar los pdf ya que sube cualquier
-archivo sin importar que los nombres hagan match con el documento
-solicitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La opción "BORRAR" solo se visualizara cuando este el archivo cargado?
-La opción "BORRAR" solo se visualizara cuando este el archivo cargado?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizacón correcta </t>
-  </si>
-  <si>
-    <t>Arroja Mensaje de error al darle clic en solicitar modificación Acento en la palabra modificación</t>
-  </si>
-  <si>
-    <t>SRPU-181  SRPU-182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se visualizan las letras del botón confirmar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza la solicitud y direcciona al apartado "Consulta de Solicitudes" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edición Correcta (Descripción del tooltip botón Editar)
-faltan letras aparece Edit / Editar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borra solicitudes / Detalles mensaje de confirmación </t>
-  </si>
-  <si>
-    <t>SRPU-186</t>
   </si>
   <si>
     <t>En Curso</t>
@@ -538,9 +313,6 @@
     <t xml:space="preserve">Administración de Plataformas </t>
   </si>
   <si>
-    <t>disrec</t>
-  </si>
-  <si>
     <t>PAUA</t>
   </si>
   <si>
@@ -554,6 +326,96 @@
   </si>
   <si>
     <t xml:space="preserve">Matriz de Pruebas PAUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resgistrar Usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar Acceso a Plataforma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtros </t>
+  </si>
+  <si>
+    <t>Densidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de Usuarios </t>
+  </si>
+  <si>
+    <t>irisc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de Aplicación </t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar </t>
+  </si>
+  <si>
+    <t>Desnsidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro por aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceptar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permiso Para Firmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Siguiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Anterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar Sesión </t>
+  </si>
+  <si>
+    <t>http://10.200.4.165/</t>
+  </si>
+  <si>
+    <t>Cierra sesión despues de dejar de usar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar correctamente con la credencial asignada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar tooltip descriptivos </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-205</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2035,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2568,7 +2429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2689,7 +2549,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3753,7 +3612,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5681,13 +5539,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1733107</xdr:colOff>
+          <xdr:colOff>1727348</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>380114</xdr:colOff>
+          <xdr:colOff>317205</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -5728,13 +5586,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1733107</xdr:colOff>
+          <xdr:colOff>1727348</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>380114</xdr:colOff>
+          <xdr:colOff>317205</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -11673,7 +11531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11750,7 +11608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11859,7 +11717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:E50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12348,7 +12206,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N2"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12371,7 +12229,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12405,7 +12263,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12446,7 +12304,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -12508,77 +12366,75 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="21">
-        <v>85</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J7" s="21"/>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -12587,31 +12443,31 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1"/>
@@ -12621,31 +12477,31 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1">
@@ -12657,435 +12513,304 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="1">
-        <v>45071</v>
-      </c>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="M14" s="7"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M15" s="7"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M16" s="7"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N17" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="M17" s="7"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="M18" s="7"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J19" s="7"/>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J20" s="7"/>
-      <c r="K20" t="s">
-        <v>39</v>
-      </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" t="s">
-        <v>39</v>
-      </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>81</v>
@@ -13093,72 +12818,49 @@
       <c r="G22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N22" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M22" s="7"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N23" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M23" s="7"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>83</v>
@@ -13166,37 +12868,24 @@
       <c r="G24" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N24" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M24" s="7"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>84</v>
@@ -13204,40 +12893,24 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M25" s="7"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>85</v>
@@ -13245,311 +12918,354 @@
       <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" t="s">
-        <v>39</v>
-      </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" t="s">
-        <v>39</v>
-      </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" t="s">
-        <v>39</v>
-      </c>
       <c r="M28" s="7"/>
-      <c r="N28" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" t="s">
-        <v>39</v>
-      </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>39</v>
-      </c>
       <c r="M30" s="7"/>
-      <c r="N30" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" t="s">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="N31" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="M32" s="7"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="1">
-        <v>45071</v>
-      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="F37"/>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
       <c r="H37"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="F38"/>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
       <c r="H38"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="F39"/>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
       <c r="H39"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="F40"/>
+      <c r="B40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
       <c r="H40"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="F41"/>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
       <c r="H41"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42"/>
-      <c r="F42"/>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
       <c r="H42"/>
       <c r="N42" s="1"/>
     </row>
@@ -14565,31 +14281,28 @@
     <mergeCell ref="G5:N5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1" display="https://srpu.atlassian.net/browse/SRPU-167"/>
-    <hyperlink ref="M14" r:id="rId2" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M15" r:id="rId3" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M17" r:id="rId4" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M16" r:id="rId5" display="https://srpu.atlassian.net/browse/SRPU-169"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId9" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId10">
+        <control shapeId="3088" r:id="rId6" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1733550</xdr:colOff>
+                <xdr:colOff>1724025</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14598,23 +14311,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId9" name="Control 18"/>
+        <control shapeId="3088" r:id="rId6" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId11" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId10">
+        <control shapeId="3090" r:id="rId8" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1733550</xdr:colOff>
+                <xdr:colOff>1724025</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14623,12 +14336,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId11" name="Control 16"/>
+        <control shapeId="3090" r:id="rId8" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -14637,7 +14350,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K55:K360 K34:K48</xm:sqref>
+          <xm:sqref>K55:K360 K12:K48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14649,7 +14362,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K33</xm:sqref>
+          <xm:sqref>K7:K11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14741,7 +14454,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="B25" s="12">
         <v>2</v>
@@ -14749,7 +14462,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B26" s="16">
         <v>6</v>
@@ -14776,13 +14489,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -14790,7 +14503,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17">
@@ -14856,7 +14569,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -14867,7 +14580,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14878,7 +14591,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -14886,60 +14599,60 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
@@ -16,7 +16,7 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="117">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -250,16 +250,10 @@
     <t xml:space="preserve">Recibir notificaciones </t>
   </si>
   <si>
-    <t>Mostrar la lista organizada que resume la información que se encuentra  dentro de la plataforma.</t>
-  </si>
-  <si>
     <t>Notifica y Recibe un mensaje corto apareciendo un mensaje corto en la pantalla de inicio</t>
   </si>
   <si>
     <t>Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desglosa las submenús </t>
   </si>
   <si>
     <t>Disposición / Pagos de Capital</t>
@@ -416,6 +410,60 @@
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-205</t>
+  </si>
+  <si>
+    <t>Ingresar al apartado Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iingresar correctamente al apartado de usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea usurario y se ve reflejado en solicitudes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca elementos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar elementos requeridos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallo de descarga de solicitudes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar solicitudes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita elemento seleccionado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar registro </t>
+  </si>
+  <si>
+    <t>Visualizar el acceso que tiene el usruario en la plataforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visión de la plataforma a la cual pertenece el usuario / Botón cerrar se visualiza con letras rojas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra columnas para mayor visivilidad en plataforma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajusta visivilidad de la pantalla </t>
+  </si>
+  <si>
+    <t>Ajusta visivilidad en pantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporta documentontos para impresión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga de Documentos </t>
   </si>
 </sst>
 </file>
@@ -5539,15 +5587,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1727348</xdr:colOff>
+          <xdr:colOff>1717823</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>886</xdr:rowOff>
+          <xdr:rowOff>1772</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>317205</xdr:colOff>
+          <xdr:colOff>250530</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>200911</xdr:rowOff>
+          <xdr:rowOff>201797</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5586,15 +5634,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1727348</xdr:colOff>
+          <xdr:colOff>1717823</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>886</xdr:rowOff>
+          <xdr:rowOff>1772</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>317205</xdr:colOff>
+          <xdr:colOff>250530</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>200911</xdr:rowOff>
+          <xdr:rowOff>201797</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11934,8 +11982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N336" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis2">
-  <autoFilter ref="A6:N336"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N337" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis2">
+  <autoFilter ref="A6:N337"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -12202,11 +12250,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12229,7 +12277,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12263,7 +12311,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12304,7 +12352,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -12366,35 +12414,35 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="1"/>
@@ -12404,37 +12452,37 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -12443,28 +12491,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -12483,10 +12531,10 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -12498,7 +12546,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
@@ -12508,7 +12556,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -12516,22 +12564,25 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -12539,30 +12590,33 @@
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1"/>
@@ -12575,22 +12629,25 @@
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -12599,22 +12656,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
@@ -12624,47 +12687,59 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="1"/>
@@ -12674,19 +12749,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -12694,27 +12769,33 @@
       <c r="M17" s="7"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12724,22 +12805,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12750,48 +12837,57 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="1"/>
@@ -12801,19 +12897,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
@@ -12826,19 +12922,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -12851,19 +12947,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
@@ -12876,19 +12972,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -12901,19 +12997,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
@@ -12926,19 +13022,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -12951,19 +13047,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
@@ -12976,19 +13072,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
@@ -13001,19 +13097,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
@@ -13026,28 +13122,28 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N31" s="1">
         <v>45118</v>
@@ -13058,19 +13154,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
@@ -13083,19 +13179,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -13105,173 +13201,212 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
       </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
       </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>89</v>
+      <c r="G36" t="s">
+        <v>25</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
       </c>
       <c r="H37"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
       </c>
       <c r="H38"/>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
       </c>
       <c r="H39"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
       </c>
       <c r="H40"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" t="s">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
       </c>
       <c r="H41"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="C42" t="s">
-        <v>95</v>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42"/>
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43"/>
-      <c r="F43"/>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
       <c r="H43"/>
       <c r="N43" s="1"/>
     </row>
@@ -13309,6 +13444,7 @@
       <c r="B49"/>
       <c r="F49"/>
       <c r="H49"/>
+      <c r="N49" s="1"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50"/>
@@ -13326,13 +13462,15 @@
       <c r="H52"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+      <c r="F53"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H54"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N55" s="1"/>
+      <c r="H55"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N56" s="1"/>
@@ -13538,8 +13676,8 @@
     <row r="123" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N123" s="1"/>
     </row>
-    <row r="126" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N126" s="1"/>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N124" s="1"/>
     </row>
     <row r="127" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N127" s="1"/>
@@ -13869,10 +14007,10 @@
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J236" s="7"/>
       <c r="N236" s="1"/>
     </row>
     <row r="237" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J237" s="7"/>
       <c r="N237" s="1"/>
     </row>
     <row r="238" spans="10:14" x14ac:dyDescent="0.3">
@@ -13884,53 +14022,52 @@
     <row r="240" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J256" s="7"/>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N256" s="1"/>
     </row>
     <row r="257" spans="10:14" x14ac:dyDescent="0.3">
@@ -13950,7 +14087,7 @@
       <c r="N260" s="1"/>
     </row>
     <row r="261" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J261" s="8"/>
+      <c r="J261" s="7"/>
       <c r="N261" s="1"/>
     </row>
     <row r="262" spans="10:14" x14ac:dyDescent="0.3">
@@ -13990,6 +14127,7 @@
       <c r="N270" s="1"/>
     </row>
     <row r="271" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J271" s="8"/>
       <c r="N271" s="1"/>
     </row>
     <row r="272" spans="10:14" x14ac:dyDescent="0.3">
@@ -14062,7 +14200,6 @@
       <c r="N294" s="1"/>
     </row>
     <row r="295" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J295" s="8"/>
       <c r="N295" s="1"/>
     </row>
     <row r="296" spans="10:14" x14ac:dyDescent="0.3">
@@ -14114,11 +14251,11 @@
       <c r="N307" s="1"/>
     </row>
     <row r="308" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J308" s="7"/>
+      <c r="J308" s="8"/>
       <c r="N308" s="1"/>
     </row>
     <row r="309" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J309" s="8"/>
+      <c r="J309" s="7"/>
       <c r="N309" s="1"/>
     </row>
     <row r="310" spans="10:14" x14ac:dyDescent="0.3">
@@ -14162,6 +14299,7 @@
       <c r="N319" s="1"/>
     </row>
     <row r="320" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J320" s="8"/>
       <c r="N320" s="1"/>
     </row>
     <row r="321" spans="14:14" x14ac:dyDescent="0.3">
@@ -14203,8 +14341,8 @@
     <row r="333" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N333" s="1"/>
     </row>
-    <row r="337" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N337" s="1"/>
+    <row r="334" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N334" s="1"/>
     </row>
     <row r="338" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N338" s="1"/>
@@ -14221,8 +14359,8 @@
     <row r="342" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N342" s="1"/>
     </row>
-    <row r="345" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N345" s="1"/>
+    <row r="343" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N343" s="1"/>
     </row>
     <row r="346" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N346" s="1"/>
@@ -14261,12 +14399,15 @@
       <c r="N357" s="1"/>
     </row>
     <row r="358" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E358" t="s">
-        <v>17</v>
-      </c>
+      <c r="N358" s="1"/>
     </row>
     <row r="359" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E360" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14291,18 +14432,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId6" name="Control 16">
+        <control shapeId="3090" r:id="rId6" name="Control 18">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:colOff>1714500</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14311,23 +14452,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId6" name="Control 16"/>
+        <control shapeId="3090" r:id="rId6" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId8" name="Control 18">
+        <control shapeId="3088" r:id="rId8" name="Control 16">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1724025</xdr:colOff>
+                <xdr:colOff>1714500</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14336,7 +14477,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId8" name="Control 18"/>
+        <control shapeId="3088" r:id="rId8" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14350,13 +14491,13 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K55:K360 K12:K48</xm:sqref>
+          <xm:sqref>K56:K361 K12:K49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G53:G360 G7:G36</xm:sqref>
+          <xm:sqref>G54:G361 G7:G37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14368,7 +14509,7 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L380</xm:sqref>
+          <xm:sqref>L8:L381</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14454,7 +14595,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="12">
         <v>2</v>
@@ -14462,7 +14603,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="16">
         <v>6</v>
@@ -14489,13 +14630,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -14569,7 +14710,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -14580,7 +14721,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14591,7 +14732,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -14599,7 +14740,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Login.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="118">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -433,9 +433,6 @@
     <t xml:space="preserve">Descargar solicitudes </t>
   </si>
   <si>
-    <t xml:space="preserve">Edita elemento seleccionado  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Editar registro </t>
   </si>
   <si>
@@ -464,6 +461,12 @@
   </si>
   <si>
     <t xml:space="preserve">Descarga de Documentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error al editar el registro y darle clic en la plataforma se abren dos pantallas enpalmadas </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-395</t>
   </si>
 </sst>
 </file>
@@ -5587,13 +5590,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1717823</xdr:colOff>
+          <xdr:colOff>1708298</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>1772</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>250530</xdr:colOff>
+          <xdr:colOff>183855</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>201797</xdr:rowOff>
         </xdr:to>
@@ -5634,13 +5637,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1717823</xdr:colOff>
+          <xdr:colOff>1708298</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>1772</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>250530</xdr:colOff>
+          <xdr:colOff>183855</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>201797</xdr:rowOff>
         </xdr:to>
@@ -11579,84 +11582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="2"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11764,8 +11690,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:E50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11970,6 +11896,83 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="2"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -12252,9 +12255,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N360"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12618,8 +12621,12 @@
       <c r="I12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="1">
+        <v>44796</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -12682,7 +12689,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -12702,13 +12709,16 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>107</v>
+      <c r="K15" t="s">
+        <v>38</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1"/>
@@ -12736,10 +12746,10 @@
         <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="1"/>
@@ -12792,10 +12802,10 @@
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12823,10 +12833,10 @@
         <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12855,10 +12865,10 @@
         <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
@@ -12887,7 +12897,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="1"/>
@@ -13298,7 +13308,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -14424,26 +14434,27 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M31" r:id="rId2"/>
+    <hyperlink ref="M12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId6" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="3088" r:id="rId7" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14452,23 +14463,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId6" name="Control 18"/>
+        <control shapeId="3088" r:id="rId7" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId8" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="3090" r:id="rId9" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14477,12 +14488,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId8" name="Control 16"/>
+        <control shapeId="3090" r:id="rId9" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -14491,7 +14502,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K56:K361 K12:K49</xm:sqref>
+          <xm:sqref>K56:K361 K12:K14 K16:K49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14503,7 +14514,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K11</xm:sqref>
+          <xm:sqref>K7:K11 K15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
